--- a/xlsx/甘比亞_intext.xlsx
+++ b/xlsx/甘比亞_intext.xlsx
@@ -29,7 +29,7 @@
     <t>冈比亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_甘比亞</t>
+    <t>体育运动_体育运动_南非_甘比亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
